--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Icam2-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Icam2-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.6391945</v>
+        <v>41.0602225</v>
       </c>
       <c r="H2">
-        <v>101.278389</v>
+        <v>82.120445</v>
       </c>
       <c r="I2">
-        <v>0.5364920657213447</v>
+        <v>0.7047920429741388</v>
       </c>
       <c r="J2">
-        <v>0.4366943366889107</v>
+        <v>0.6188016932468634</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.370512</v>
+        <v>0.2680845</v>
       </c>
       <c r="N2">
-        <v>0.741024</v>
+        <v>0.536169</v>
       </c>
       <c r="O2">
-        <v>0.001638838393995521</v>
+        <v>0.0005812041106144338</v>
       </c>
       <c r="P2">
-        <v>0.00109315609805839</v>
+        <v>0.0003877157488557307</v>
       </c>
       <c r="Q2">
-        <v>18.762429232584</v>
+        <v>11.00760921880125</v>
       </c>
       <c r="R2">
-        <v>75.049716930336</v>
+        <v>44.03043687520501</v>
       </c>
       <c r="S2">
-        <v>0.0008792237953781082</v>
+        <v>0.0004096280325049142</v>
       </c>
       <c r="T2">
-        <v>0.0004773750771390466</v>
+        <v>0.0002399191618904018</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.6391945</v>
+        <v>41.0602225</v>
       </c>
       <c r="H3">
-        <v>101.278389</v>
+        <v>82.120445</v>
       </c>
       <c r="I3">
-        <v>0.5364920657213447</v>
+        <v>0.7047920429741388</v>
       </c>
       <c r="J3">
-        <v>0.4366943366889107</v>
+        <v>0.6188016932468634</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.040702</v>
       </c>
       <c r="O3">
-        <v>6.001065220776088E-05</v>
+        <v>2.941382252017391E-05</v>
       </c>
       <c r="P3">
-        <v>6.004345271296557E-05</v>
+        <v>2.943252297302894E-05</v>
       </c>
       <c r="Q3">
-        <v>0.6870388315129999</v>
+        <v>0.5570777253983333</v>
       </c>
       <c r="R3">
-        <v>4.122232989077999</v>
+        <v>3.34246635239</v>
       </c>
       <c r="S3">
-        <v>3.219523876822681E-05</v>
+        <v>2.07306280656721E-05</v>
       </c>
       <c r="T3">
-        <v>2.622063575500048E-05</v>
+        <v>1.821289505223751E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.6391945</v>
+        <v>41.0602225</v>
       </c>
       <c r="H4">
-        <v>101.278389</v>
+        <v>82.120445</v>
       </c>
       <c r="I4">
-        <v>0.5364920657213447</v>
+        <v>0.7047920429741388</v>
       </c>
       <c r="J4">
-        <v>0.4366943366889107</v>
+        <v>0.6188016932468634</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>124.6539663333333</v>
+        <v>160.3781766666667</v>
       </c>
       <c r="N4">
-        <v>373.961899</v>
+        <v>481.13453</v>
       </c>
       <c r="O4">
-        <v>0.5513659638308389</v>
+        <v>0.3476980412202665</v>
       </c>
       <c r="P4">
-        <v>0.5516673283636506</v>
+        <v>0.34791909752205</v>
       </c>
       <c r="Q4">
-        <v>6312.376446350119</v>
+        <v>6585.163618077643</v>
       </c>
       <c r="R4">
-        <v>37874.25867810071</v>
+        <v>39510.98170846586</v>
       </c>
       <c r="S4">
-        <v>0.295803464904047</v>
+        <v>0.245054812809738</v>
       </c>
       <c r="T4">
-        <v>0.2409099980327079</v>
+        <v>0.2152929266595651</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.6391945</v>
+        <v>41.0602225</v>
       </c>
       <c r="H5">
-        <v>101.278389</v>
+        <v>82.120445</v>
       </c>
       <c r="I5">
-        <v>0.5364920657213447</v>
+        <v>0.7047920429741388</v>
       </c>
       <c r="J5">
-        <v>0.4366943366889107</v>
+        <v>0.6188016932468634</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.4121773333333333</v>
+        <v>0.6111180000000001</v>
       </c>
       <c r="N5">
-        <v>1.236532</v>
+        <v>1.222236</v>
       </c>
       <c r="O5">
-        <v>0.001823131339879293</v>
+        <v>0.001324896790640531</v>
       </c>
       <c r="P5">
-        <v>0.001824127823450168</v>
+        <v>0.000883826080990197</v>
       </c>
       <c r="Q5">
-        <v>20.872328151158</v>
+        <v>25.092641053755</v>
       </c>
       <c r="R5">
-        <v>125.233968906948</v>
+        <v>100.37056421502</v>
       </c>
       <c r="S5">
-        <v>0.0009780954986131649</v>
+        <v>0.00093377671580542</v>
       </c>
       <c r="T5">
-        <v>0.0007965862898973576</v>
+        <v>0.0005469130754524733</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>50.6391945</v>
+        <v>41.0602225</v>
       </c>
       <c r="H6">
-        <v>101.278389</v>
+        <v>82.120445</v>
       </c>
       <c r="I6">
-        <v>0.5364920657213447</v>
+        <v>0.7047920429741388</v>
       </c>
       <c r="J6">
-        <v>0.4366943366889107</v>
+        <v>0.6188016932468634</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,33 +809,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>100.6318613333333</v>
+        <v>190.6043296666667</v>
       </c>
       <c r="N6">
-        <v>301.895584</v>
+        <v>571.812989</v>
       </c>
       <c r="O6">
-        <v>0.4451120557830785</v>
+        <v>0.4132279930513526</v>
       </c>
       <c r="P6">
-        <v>0.4453553442621278</v>
+        <v>0.4134907113905666</v>
       </c>
       <c r="Q6">
-        <v>5095.916398955696</v>
+        <v>7826.256185576684</v>
       </c>
       <c r="R6">
-        <v>30575.49839373417</v>
+        <v>46957.53711346011</v>
       </c>
       <c r="S6">
-        <v>0.2387990862845382</v>
+        <v>0.291239801436766</v>
       </c>
       <c r="T6">
-        <v>0.1944841566534114</v>
+        <v>0.2558687523503327</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.667119</v>
+        <v>41.0602225</v>
       </c>
       <c r="H7">
-        <v>2.001357</v>
+        <v>82.120445</v>
       </c>
       <c r="I7">
-        <v>0.007067727951161579</v>
+        <v>0.7047920429741388</v>
       </c>
       <c r="J7">
-        <v>0.008629494171680676</v>
+        <v>0.6188016932468634</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.370512</v>
+        <v>109.381785</v>
       </c>
       <c r="N7">
-        <v>0.741024</v>
+        <v>328.145355</v>
       </c>
       <c r="O7">
-        <v>0.001638838393995521</v>
+        <v>0.2371384510046057</v>
       </c>
       <c r="P7">
-        <v>0.00109315609805839</v>
+        <v>0.2372892167345643</v>
       </c>
       <c r="Q7">
-        <v>0.247175594928</v>
+        <v>4491.240429547162</v>
       </c>
       <c r="R7">
-        <v>1.483053569568</v>
+        <v>26947.44257728297</v>
       </c>
       <c r="S7">
-        <v>1.15828639246789E-05</v>
+        <v>0.1671332933512588</v>
       </c>
       <c r="T7">
-        <v>9.433384176932069E-06</v>
+        <v>0.1468349691045703</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>2.001357</v>
       </c>
       <c r="I8">
-        <v>0.007067727951161579</v>
+        <v>0.01145098916394972</v>
       </c>
       <c r="J8">
-        <v>0.008629494171680676</v>
+        <v>0.01508081331502116</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.01356733333333333</v>
+        <v>0.2680845</v>
       </c>
       <c r="N8">
-        <v>0.040702</v>
+        <v>0.536169</v>
       </c>
       <c r="O8">
-        <v>6.001065220776088E-05</v>
+        <v>0.0005812041106144338</v>
       </c>
       <c r="P8">
-        <v>6.004345271296557E-05</v>
+        <v>0.0003877157488557307</v>
       </c>
       <c r="Q8">
-        <v>0.009051025846</v>
+        <v>0.1788442635555</v>
       </c>
       <c r="R8">
-        <v>0.081459232614</v>
+        <v>1.073065581333</v>
       </c>
       <c r="S8">
-        <v>4.241389639762279E-07</v>
+        <v>6.655361972688915E-06</v>
       </c>
       <c r="T8">
-        <v>5.181446252341206E-07</v>
+        <v>5.847068827786904E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>2.001357</v>
       </c>
       <c r="I9">
-        <v>0.007067727951161579</v>
+        <v>0.01145098916394972</v>
       </c>
       <c r="J9">
-        <v>0.008629494171680676</v>
+        <v>0.01508081331502116</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>124.6539663333333</v>
+        <v>0.01356733333333333</v>
       </c>
       <c r="N9">
-        <v>373.961899</v>
+        <v>0.040702</v>
       </c>
       <c r="O9">
-        <v>0.5513659638308389</v>
+        <v>2.941382252017391E-05</v>
       </c>
       <c r="P9">
-        <v>0.5516673283636506</v>
+        <v>2.943252297302894E-05</v>
       </c>
       <c r="Q9">
-        <v>83.159029366327</v>
+        <v>0.009051025846</v>
       </c>
       <c r="R9">
-        <v>748.431264296943</v>
+        <v>0.08145923261400001</v>
       </c>
       <c r="S9">
-        <v>0.003896904633886364</v>
+        <v>3.368173629488516E-07</v>
       </c>
       <c r="T9">
-        <v>0.004760609994820772</v>
+        <v>4.438663843463209E-07</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>2.001357</v>
       </c>
       <c r="I10">
-        <v>0.007067727951161579</v>
+        <v>0.01145098916394972</v>
       </c>
       <c r="J10">
-        <v>0.008629494171680676</v>
+        <v>0.01508081331502116</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4121773333333333</v>
+        <v>160.3781766666667</v>
       </c>
       <c r="N10">
-        <v>1.236532</v>
+        <v>481.13453</v>
       </c>
       <c r="O10">
-        <v>0.001823131339879293</v>
+        <v>0.3476980412202665</v>
       </c>
       <c r="P10">
-        <v>0.001824127823450168</v>
+        <v>0.34791909752205</v>
       </c>
       <c r="Q10">
-        <v>0.274971330436</v>
+        <v>106.99132883969</v>
       </c>
       <c r="R10">
-        <v>2.474741973924</v>
+        <v>962.9219595572101</v>
       </c>
       <c r="S10">
-        <v>1.288539632950354E-05</v>
+        <v>0.003981486502339815</v>
       </c>
       <c r="T10">
-        <v>1.574130042086378E-05</v>
+        <v>0.005246902958460677</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1107,45 @@
         <v>2.001357</v>
       </c>
       <c r="I11">
-        <v>0.007067727951161579</v>
+        <v>0.01145098916394972</v>
       </c>
       <c r="J11">
-        <v>0.008629494171680676</v>
+        <v>0.01508081331502116</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>100.6318613333333</v>
+        <v>0.6111180000000001</v>
       </c>
       <c r="N11">
-        <v>301.895584</v>
+        <v>1.222236</v>
       </c>
       <c r="O11">
-        <v>0.4451120557830785</v>
+        <v>0.001324896790640531</v>
       </c>
       <c r="P11">
-        <v>0.4453553442621278</v>
+        <v>0.000883826080990197</v>
       </c>
       <c r="Q11">
-        <v>67.133426700832</v>
+        <v>0.407688429042</v>
       </c>
       <c r="R11">
-        <v>604.200840307488</v>
+        <v>2.446130574252</v>
       </c>
       <c r="S11">
-        <v>0.003145930918057056</v>
+        <v>1.517137879297648E-05</v>
       </c>
       <c r="T11">
-        <v>0.003843191347636873</v>
+        <v>1.332881613035993E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,51 +1163,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.321189</v>
+        <v>0.667119</v>
       </c>
       <c r="H12">
-        <v>12.963567</v>
+        <v>2.001357</v>
       </c>
       <c r="I12">
-        <v>0.0457804204010858</v>
+        <v>0.01145098916394972</v>
       </c>
       <c r="J12">
-        <v>0.05589658710099795</v>
+        <v>0.01508081331502116</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.370512</v>
+        <v>190.6043296666667</v>
       </c>
       <c r="N12">
-        <v>0.741024</v>
+        <v>571.812989</v>
       </c>
       <c r="O12">
-        <v>0.001638838393995521</v>
+        <v>0.4132279930513526</v>
       </c>
       <c r="P12">
-        <v>0.00109315609805839</v>
+        <v>0.4134907113905666</v>
       </c>
       <c r="Q12">
-        <v>1.601052378768</v>
+        <v>127.155769802897</v>
       </c>
       <c r="R12">
-        <v>9.606314272608001</v>
+        <v>1144.401928226073</v>
       </c>
       <c r="S12">
-        <v>7.502671064655524E-05</v>
+        <v>0.004731869270671729</v>
       </c>
       <c r="T12">
-        <v>6.110369505010787E-05</v>
+        <v>0.006235776225976429</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.321189</v>
+        <v>0.667119</v>
       </c>
       <c r="H13">
-        <v>12.963567</v>
+        <v>2.001357</v>
       </c>
       <c r="I13">
-        <v>0.0457804204010858</v>
+        <v>0.01145098916394972</v>
       </c>
       <c r="J13">
-        <v>0.05589658710099795</v>
+        <v>0.01508081331502116</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.01356733333333333</v>
+        <v>109.381785</v>
       </c>
       <c r="N13">
-        <v>0.040702</v>
+        <v>328.145355</v>
       </c>
       <c r="O13">
-        <v>6.001065220776088E-05</v>
+        <v>0.2371384510046057</v>
       </c>
       <c r="P13">
-        <v>6.004345271296557E-05</v>
+        <v>0.2372892167345643</v>
       </c>
       <c r="Q13">
-        <v>0.05862701155933334</v>
+        <v>72.970667027415</v>
       </c>
       <c r="R13">
-        <v>0.5276431040339999</v>
+        <v>656.736003246735</v>
       </c>
       <c r="S13">
-        <v>2.74731288661464E-06</v>
+        <v>0.002715469832809561</v>
       </c>
       <c r="T13">
-        <v>3.356224084414932E-06</v>
+        <v>0.003578514379241559</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.321189</v>
+        <v>7.215007666666668</v>
       </c>
       <c r="H14">
-        <v>12.963567</v>
+        <v>21.645023</v>
       </c>
       <c r="I14">
-        <v>0.0457804204010858</v>
+        <v>0.1238444334651152</v>
       </c>
       <c r="J14">
-        <v>0.05589658710099795</v>
+        <v>0.1631016110880464</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>124.6539663333333</v>
+        <v>0.2680845</v>
       </c>
       <c r="N14">
-        <v>373.961899</v>
+        <v>0.536169</v>
       </c>
       <c r="O14">
-        <v>0.5513659638308389</v>
+        <v>0.0005812041106144338</v>
       </c>
       <c r="P14">
-        <v>0.5516673283636506</v>
+        <v>0.0003877157488557307</v>
       </c>
       <c r="Q14">
-        <v>538.6533481259704</v>
+        <v>1.9342317228145</v>
       </c>
       <c r="R14">
-        <v>4847.880133133734</v>
+        <v>11.605390336887</v>
       </c>
       <c r="S14">
-        <v>0.02524176561902567</v>
+        <v>7.197889380664069E-05</v>
       </c>
       <c r="T14">
-        <v>0.03083632087065363</v>
+        <v>6.323706328257806E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.321189</v>
+        <v>7.215007666666668</v>
       </c>
       <c r="H15">
-        <v>12.963567</v>
+        <v>21.645023</v>
       </c>
       <c r="I15">
-        <v>0.0457804204010858</v>
+        <v>0.1238444334651152</v>
       </c>
       <c r="J15">
-        <v>0.05589658710099795</v>
+        <v>0.1631016110880464</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.4121773333333333</v>
+        <v>0.01356733333333333</v>
       </c>
       <c r="N15">
-        <v>1.236532</v>
+        <v>0.040702</v>
       </c>
       <c r="O15">
-        <v>0.001823131339879293</v>
+        <v>2.941382252017391E-05</v>
       </c>
       <c r="P15">
-        <v>0.001824127823450168</v>
+        <v>2.943252297302894E-05</v>
       </c>
       <c r="Q15">
-        <v>1.781096158849333</v>
+        <v>0.09788841401622224</v>
       </c>
       <c r="R15">
-        <v>16.029865429644</v>
+        <v>0.8809957261460001</v>
       </c>
       <c r="S15">
-        <v>8.346371918606888E-05</v>
+        <v>3.642738186054383E-06</v>
       </c>
       <c r="T15">
-        <v>0.0001019625197668361</v>
+        <v>4.800491915286957E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.321189</v>
+        <v>7.215007666666668</v>
       </c>
       <c r="H16">
-        <v>12.963567</v>
+        <v>21.645023</v>
       </c>
       <c r="I16">
-        <v>0.0457804204010858</v>
+        <v>0.1238444334651152</v>
       </c>
       <c r="J16">
-        <v>0.05589658710099795</v>
+        <v>0.1631016110880464</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,95 +1429,95 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>100.6318613333333</v>
+        <v>160.3781766666667</v>
       </c>
       <c r="N16">
-        <v>301.895584</v>
+        <v>481.13453</v>
       </c>
       <c r="O16">
-        <v>0.4451120557830785</v>
+        <v>0.3476980412202665</v>
       </c>
       <c r="P16">
-        <v>0.4453553442621278</v>
+        <v>0.34791909752205</v>
       </c>
       <c r="Q16">
-        <v>434.8492922431254</v>
+        <v>1157.129774216021</v>
       </c>
       <c r="R16">
-        <v>3913.643630188128</v>
+        <v>10414.16796794419</v>
       </c>
       <c r="S16">
-        <v>0.02037741703934089</v>
+        <v>0.04306046693185417</v>
       </c>
       <c r="T16">
-        <v>0.02489384379144295</v>
+        <v>0.0567461653341455</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.608629</v>
+        <v>7.215007666666668</v>
       </c>
       <c r="H17">
-        <v>1.217258</v>
+        <v>21.645023</v>
       </c>
       <c r="I17">
-        <v>0.006448061283200629</v>
+        <v>0.1238444334651152</v>
       </c>
       <c r="J17">
-        <v>0.005248599233635816</v>
+        <v>0.1631016110880464</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M17">
-        <v>0.370512</v>
+        <v>0.6111180000000001</v>
       </c>
       <c r="N17">
-        <v>0.741024</v>
+        <v>1.222236</v>
       </c>
       <c r="O17">
-        <v>0.001638838393995521</v>
+        <v>0.001324896790640531</v>
       </c>
       <c r="P17">
-        <v>0.00109315609805839</v>
+        <v>0.000883826080990197</v>
       </c>
       <c r="Q17">
-        <v>0.225504348048</v>
+        <v>4.409221055238001</v>
       </c>
       <c r="R17">
-        <v>0.9020173921919999</v>
+        <v>26.455326331428</v>
       </c>
       <c r="S17">
-        <v>1.056733039774522E-05</v>
+        <v>0.0001640810924366259</v>
       </c>
       <c r="T17">
-        <v>5.737538258513586E-06</v>
+        <v>0.0001441534577311353</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.608629</v>
+        <v>7.215007666666668</v>
       </c>
       <c r="H18">
-        <v>1.217258</v>
+        <v>21.645023</v>
       </c>
       <c r="I18">
-        <v>0.006448061283200629</v>
+        <v>0.1238444334651152</v>
       </c>
       <c r="J18">
-        <v>0.005248599233635816</v>
+        <v>0.1631016110880464</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.01356733333333333</v>
+        <v>190.6043296666667</v>
       </c>
       <c r="N18">
-        <v>0.040702</v>
+        <v>571.812989</v>
       </c>
       <c r="O18">
-        <v>6.001065220776088E-05</v>
+        <v>0.4132279930513526</v>
       </c>
       <c r="P18">
-        <v>6.004345271296557E-05</v>
+        <v>0.4134907113905666</v>
       </c>
       <c r="Q18">
-        <v>0.008257472519333332</v>
+        <v>1375.211699844861</v>
       </c>
       <c r="R18">
-        <v>0.04954483511599999</v>
+        <v>12376.90529860375</v>
       </c>
       <c r="S18">
-        <v>3.869523630804813E-07</v>
+        <v>0.05117598669137131</v>
       </c>
       <c r="T18">
-        <v>3.151440198941194E-07</v>
+        <v>0.06744100119774384</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,25 +1588,25 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.608629</v>
+        <v>7.215007666666668</v>
       </c>
       <c r="H19">
-        <v>1.217258</v>
+        <v>21.645023</v>
       </c>
       <c r="I19">
-        <v>0.006448061283200629</v>
+        <v>0.1238444334651152</v>
       </c>
       <c r="J19">
-        <v>0.005248599233635816</v>
+        <v>0.1631016110880464</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>124.6539663333333</v>
+        <v>109.381785</v>
       </c>
       <c r="N19">
-        <v>373.961899</v>
+        <v>328.145355</v>
       </c>
       <c r="O19">
-        <v>0.5513659638308389</v>
+        <v>0.2371384510046057</v>
       </c>
       <c r="P19">
-        <v>0.5516673283636506</v>
+        <v>0.2372892167345643</v>
       </c>
       <c r="Q19">
-        <v>75.86801887549034</v>
+        <v>789.1904173686851</v>
       </c>
       <c r="R19">
-        <v>455.208113252942</v>
+        <v>7102.713756318166</v>
       </c>
       <c r="S19">
-        <v>0.003555241524252231</v>
+        <v>0.02936827711746036</v>
       </c>
       <c r="T19">
-        <v>0.002895480716871375</v>
+        <v>0.03870225354322806</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.608629</v>
+        <v>1.006859</v>
       </c>
       <c r="H20">
-        <v>1.217258</v>
+        <v>2.013718</v>
       </c>
       <c r="I20">
-        <v>0.006448061283200629</v>
+        <v>0.01728257102349843</v>
       </c>
       <c r="J20">
-        <v>0.005248599233635816</v>
+        <v>0.01517395708366762</v>
       </c>
       <c r="K20">
         <v>2</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.4121773333333333</v>
+        <v>0.2680845</v>
       </c>
       <c r="N20">
-        <v>1.236532</v>
+        <v>0.536169</v>
       </c>
       <c r="O20">
-        <v>0.001823131339879293</v>
+        <v>0.0005812041106144338</v>
       </c>
       <c r="P20">
-        <v>0.001824127823450168</v>
+        <v>0.0003877157488557307</v>
       </c>
       <c r="Q20">
-        <v>0.2508630782093333</v>
+        <v>0.2699232915855</v>
       </c>
       <c r="R20">
-        <v>1.505178469256</v>
+        <v>1.079693166342</v>
       </c>
       <c r="S20">
-        <v>1.175566260686536E-05</v>
+        <v>1.004470132084319E-05</v>
       </c>
       <c r="T20">
-        <v>9.574115896214321E-06</v>
+        <v>5.883182133798911E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.608629</v>
+        <v>1.006859</v>
       </c>
       <c r="H21">
-        <v>1.217258</v>
+        <v>2.013718</v>
       </c>
       <c r="I21">
-        <v>0.006448061283200629</v>
+        <v>0.01728257102349843</v>
       </c>
       <c r="J21">
-        <v>0.005248599233635816</v>
+        <v>0.01517395708366762</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>100.6318613333333</v>
+        <v>0.01356733333333333</v>
       </c>
       <c r="N21">
-        <v>301.895584</v>
+        <v>0.040702</v>
       </c>
       <c r="O21">
-        <v>0.4451120557830785</v>
+        <v>2.941382252017391E-05</v>
       </c>
       <c r="P21">
-        <v>0.4453553442621278</v>
+        <v>2.943252297302894E-05</v>
       </c>
       <c r="Q21">
-        <v>61.24746913144533</v>
+        <v>0.01366039167266667</v>
       </c>
       <c r="R21">
-        <v>367.4848147886719</v>
+        <v>0.081962350036</v>
       </c>
       <c r="S21">
-        <v>0.002870109813580707</v>
+        <v>5.083464767774831E-07</v>
       </c>
       <c r="T21">
-        <v>0.002337491718589819</v>
+        <v>4.466078404568024E-07</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>31.89049033333333</v>
+        <v>1.006859</v>
       </c>
       <c r="H22">
-        <v>95.671471</v>
+        <v>2.013718</v>
       </c>
       <c r="I22">
-        <v>0.3378607263548905</v>
+        <v>0.01728257102349843</v>
       </c>
       <c r="J22">
-        <v>0.4125183070239926</v>
+        <v>0.01517395708366762</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.370512</v>
+        <v>160.3781766666667</v>
       </c>
       <c r="N22">
-        <v>0.741024</v>
+        <v>481.13453</v>
       </c>
       <c r="O22">
-        <v>0.001638838393995521</v>
+        <v>0.3476980412202665</v>
       </c>
       <c r="P22">
-        <v>0.00109315609805839</v>
+        <v>0.34791909752205</v>
       </c>
       <c r="Q22">
-        <v>11.815809354384</v>
+        <v>161.4782105804233</v>
       </c>
       <c r="R22">
-        <v>70.89485612630401</v>
+        <v>968.8692634825401</v>
       </c>
       <c r="S22">
-        <v>0.0005536991301736089</v>
+        <v>0.00600911609212054</v>
       </c>
       <c r="T22">
-        <v>0.0004509469028840008</v>
+        <v>0.005279309454387957</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,87 +1836,87 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>31.89049033333333</v>
+        <v>1.006859</v>
       </c>
       <c r="H23">
-        <v>95.671471</v>
+        <v>2.013718</v>
       </c>
       <c r="I23">
-        <v>0.3378607263548905</v>
+        <v>0.01728257102349843</v>
       </c>
       <c r="J23">
-        <v>0.4125183070239926</v>
+        <v>0.01517395708366762</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M23">
-        <v>0.01356733333333333</v>
+        <v>0.6111180000000001</v>
       </c>
       <c r="N23">
-        <v>0.040702</v>
+        <v>1.222236</v>
       </c>
       <c r="O23">
-        <v>6.001065220776088E-05</v>
+        <v>0.001324896790640531</v>
       </c>
       <c r="P23">
-        <v>6.004345271296557E-05</v>
+        <v>0.000883826080990197</v>
       </c>
       <c r="Q23">
-        <v>0.4326689125157777</v>
+        <v>0.615309658362</v>
       </c>
       <c r="R23">
-        <v>3.894020212641999</v>
+        <v>2.461238633448</v>
       </c>
       <c r="S23">
-        <v>2.02752425439448E-05</v>
+        <v>2.289762288305011E-05</v>
       </c>
       <c r="T23">
-        <v>2.476902346102771E-05</v>
+        <v>1.341113902237139E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>31.89049033333333</v>
+        <v>1.006859</v>
       </c>
       <c r="H24">
-        <v>95.671471</v>
+        <v>2.013718</v>
       </c>
       <c r="I24">
-        <v>0.3378607263548905</v>
+        <v>0.01728257102349843</v>
       </c>
       <c r="J24">
-        <v>0.4125183070239926</v>
+        <v>0.01517395708366762</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,33 +1925,33 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>124.6539663333333</v>
+        <v>190.6043296666667</v>
       </c>
       <c r="N24">
-        <v>373.961899</v>
+        <v>571.812989</v>
       </c>
       <c r="O24">
-        <v>0.5513659638308389</v>
+        <v>0.4132279930513526</v>
       </c>
       <c r="P24">
-        <v>0.5516673283636506</v>
+        <v>0.4134907113905666</v>
       </c>
       <c r="Q24">
-        <v>3975.276108364826</v>
+        <v>191.9116847638503</v>
       </c>
       <c r="R24">
-        <v>35777.48497528343</v>
+        <v>1151.470108583102</v>
       </c>
       <c r="S24">
-        <v>0.1862849050272515</v>
+        <v>0.007141642138807716</v>
       </c>
       <c r="T24">
-        <v>0.2275728723370222</v>
+        <v>0.006274290309135652</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>31.89049033333333</v>
+        <v>1.006859</v>
       </c>
       <c r="H25">
-        <v>95.671471</v>
+        <v>2.013718</v>
       </c>
       <c r="I25">
-        <v>0.3378607263548905</v>
+        <v>0.01728257102349843</v>
       </c>
       <c r="J25">
-        <v>0.4125183070239926</v>
+        <v>0.01517395708366762</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.4121773333333333</v>
+        <v>109.381785</v>
       </c>
       <c r="N25">
-        <v>1.236532</v>
+        <v>328.145355</v>
       </c>
       <c r="O25">
-        <v>0.001823131339879293</v>
+        <v>0.2371384510046057</v>
       </c>
       <c r="P25">
-        <v>0.001824127823450168</v>
+        <v>0.2372892167345643</v>
       </c>
       <c r="Q25">
-        <v>13.14453726428578</v>
+        <v>110.132034663315</v>
       </c>
       <c r="R25">
-        <v>118.300835378572</v>
+        <v>660.79220797989</v>
       </c>
       <c r="S25">
-        <v>0.0006159644787319826</v>
+        <v>0.0040983621218895</v>
       </c>
       <c r="T25">
-        <v>0.0007524861215250239</v>
+        <v>0.003600616391147383</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,51 +2031,51 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>31.89049033333333</v>
+        <v>3.486855</v>
       </c>
       <c r="H26">
-        <v>95.671471</v>
+        <v>10.460565</v>
       </c>
       <c r="I26">
-        <v>0.3378607263548905</v>
+        <v>0.05985129912543923</v>
       </c>
       <c r="J26">
-        <v>0.4125183070239926</v>
+        <v>0.07882343226852796</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>100.6318613333333</v>
+        <v>0.2680845</v>
       </c>
       <c r="N26">
-        <v>301.895584</v>
+        <v>0.536169</v>
       </c>
       <c r="O26">
-        <v>0.4451120557830785</v>
+        <v>0.0005812041106144338</v>
       </c>
       <c r="P26">
-        <v>0.4453553442621278</v>
+        <v>0.0003877157488557307</v>
       </c>
       <c r="Q26">
-        <v>3209.199401076007</v>
+        <v>0.9347717792475</v>
       </c>
       <c r="R26">
-        <v>28882.79460968406</v>
+        <v>5.608630675484999</v>
       </c>
       <c r="S26">
-        <v>0.1503858824761894</v>
+        <v>3.478582107731935E-05</v>
       </c>
       <c r="T26">
-        <v>0.1837172326391003</v>
+        <v>3.056108606937128E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,51 +2093,51 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>6.262834666666667</v>
+        <v>3.486855</v>
       </c>
       <c r="H27">
-        <v>18.788504</v>
+        <v>10.460565</v>
       </c>
       <c r="I27">
-        <v>0.06635099828831695</v>
+        <v>0.05985129912543923</v>
       </c>
       <c r="J27">
-        <v>0.08101267578078226</v>
+        <v>0.07882343226852796</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M27">
-        <v>0.370512</v>
+        <v>0.01356733333333333</v>
       </c>
       <c r="N27">
-        <v>0.741024</v>
+        <v>0.040702</v>
       </c>
       <c r="O27">
-        <v>0.001638838393995521</v>
+        <v>2.941382252017391E-05</v>
       </c>
       <c r="P27">
-        <v>0.00109315609805839</v>
+        <v>2.943252297302894E-05</v>
       </c>
       <c r="Q27">
-        <v>2.320455398016</v>
+        <v>0.04730732407</v>
       </c>
       <c r="R27">
-        <v>13.922732388096</v>
+        <v>0.42576591663</v>
       </c>
       <c r="S27">
-        <v>0.0001087385634748249</v>
+        <v>1.760455490077509E-06</v>
       </c>
       <c r="T27">
-        <v>8.855950054978939E-05</v>
+        <v>2.31997248105644E-06</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,51 +2155,51 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>6.262834666666667</v>
+        <v>3.486855</v>
       </c>
       <c r="H28">
-        <v>18.788504</v>
+        <v>10.460565</v>
       </c>
       <c r="I28">
-        <v>0.06635099828831695</v>
+        <v>0.05985129912543923</v>
       </c>
       <c r="J28">
-        <v>0.08101267578078226</v>
+        <v>0.07882343226852796</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.01356733333333333</v>
+        <v>160.3781766666667</v>
       </c>
       <c r="N28">
-        <v>0.040702</v>
+        <v>481.13453</v>
       </c>
       <c r="O28">
-        <v>6.001065220776088E-05</v>
+        <v>0.3476980412202665</v>
       </c>
       <c r="P28">
-        <v>6.004345271296557E-05</v>
+        <v>0.34791909752205</v>
       </c>
       <c r="Q28">
-        <v>0.08496996553422222</v>
+        <v>559.2154472010501</v>
       </c>
       <c r="R28">
-        <v>0.7647296898079999</v>
+        <v>5032.93902480945</v>
       </c>
       <c r="S28">
-        <v>3.981766681917926E-06</v>
+        <v>0.02081017947040347</v>
       </c>
       <c r="T28">
-        <v>4.86428076739421E-06</v>
+        <v>0.02742417741845668</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,51 +2217,51 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>6.262834666666667</v>
+        <v>3.486855</v>
       </c>
       <c r="H29">
-        <v>18.788504</v>
+        <v>10.460565</v>
       </c>
       <c r="I29">
-        <v>0.06635099828831695</v>
+        <v>0.05985129912543923</v>
       </c>
       <c r="J29">
-        <v>0.08101267578078226</v>
+        <v>0.07882343226852796</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M29">
-        <v>124.6539663333333</v>
+        <v>0.6111180000000001</v>
       </c>
       <c r="N29">
-        <v>373.961899</v>
+        <v>1.222236</v>
       </c>
       <c r="O29">
-        <v>0.5513659638308389</v>
+        <v>0.001324896790640531</v>
       </c>
       <c r="P29">
-        <v>0.5516673283636506</v>
+        <v>0.000883826080990197</v>
       </c>
       <c r="Q29">
-        <v>780.6871816898996</v>
+        <v>2.13087985389</v>
       </c>
       <c r="R29">
-        <v>7026.184635209096</v>
+        <v>12.78527912334</v>
       </c>
       <c r="S29">
-        <v>0.03658368212237622</v>
+        <v>7.929679412696088E-05</v>
       </c>
       <c r="T29">
-        <v>0.04469204641157477</v>
+        <v>6.966620523208931E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2279,51 +2279,51 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>6.262834666666667</v>
+        <v>3.486855</v>
       </c>
       <c r="H30">
-        <v>18.788504</v>
+        <v>10.460565</v>
       </c>
       <c r="I30">
-        <v>0.06635099828831695</v>
+        <v>0.05985129912543923</v>
       </c>
       <c r="J30">
-        <v>0.08101267578078226</v>
+        <v>0.07882343226852796</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0.4121773333333333</v>
+        <v>190.6043296666667</v>
       </c>
       <c r="N30">
-        <v>1.236532</v>
+        <v>571.812989</v>
       </c>
       <c r="O30">
-        <v>0.001823131339879293</v>
+        <v>0.4132279930513526</v>
       </c>
       <c r="P30">
-        <v>0.001824127823450168</v>
+        <v>0.4134907113905666</v>
       </c>
       <c r="Q30">
-        <v>2.581398492014222</v>
+        <v>664.609659919865</v>
       </c>
       <c r="R30">
-        <v>23.232586428128</v>
+        <v>5981.486939278785</v>
       </c>
       <c r="S30">
-        <v>0.000120966584411708</v>
+        <v>0.02473223221912143</v>
       </c>
       <c r="T30">
-        <v>0.0001477774759438725</v>
+        <v>0.03259275708295977</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>6.262834666666667</v>
+        <v>3.486855</v>
       </c>
       <c r="H31">
-        <v>18.788504</v>
+        <v>10.460565</v>
       </c>
       <c r="I31">
-        <v>0.06635099828831695</v>
+        <v>0.05985129912543923</v>
       </c>
       <c r="J31">
-        <v>0.08101267578078226</v>
+        <v>0.07882343226852796</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,400 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>100.6318613333333</v>
+        <v>109.381785</v>
       </c>
       <c r="N31">
-        <v>301.895584</v>
+        <v>328.145355</v>
       </c>
       <c r="O31">
-        <v>0.4451120557830785</v>
+        <v>0.2371384510046057</v>
       </c>
       <c r="P31">
-        <v>0.4453553442621278</v>
+        <v>0.2372892167345643</v>
       </c>
       <c r="Q31">
-        <v>630.2407097295928</v>
+        <v>381.3984239361749</v>
       </c>
       <c r="R31">
-        <v>5672.166387566335</v>
+        <v>3432.585815425575</v>
       </c>
       <c r="S31">
-        <v>0.02953362925137228</v>
+        <v>0.01419304436521997</v>
       </c>
       <c r="T31">
-        <v>0.03607942811194642</v>
+        <v>0.01870395050332898</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>4.822572</v>
+      </c>
+      <c r="H32">
+        <v>14.467716</v>
+      </c>
+      <c r="I32">
+        <v>0.08277866424785882</v>
+      </c>
+      <c r="J32">
+        <v>0.1090184929978733</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.2680845</v>
+      </c>
+      <c r="N32">
+        <v>0.536169</v>
+      </c>
+      <c r="O32">
+        <v>0.0005812041106144338</v>
+      </c>
+      <c r="P32">
+        <v>0.0003877157488557307</v>
+      </c>
+      <c r="Q32">
+        <v>1.292856803334</v>
+      </c>
+      <c r="R32">
+        <v>7.757140820004</v>
+      </c>
+      <c r="S32">
+        <v>4.811129993202761E-05</v>
+      </c>
+      <c r="T32">
+        <v>4.226818665179367E-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>4.822572</v>
+      </c>
+      <c r="H33">
+        <v>14.467716</v>
+      </c>
+      <c r="I33">
+        <v>0.08277866424785882</v>
+      </c>
+      <c r="J33">
+        <v>0.1090184929978733</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.01356733333333333</v>
+      </c>
+      <c r="N33">
+        <v>0.040702</v>
+      </c>
+      <c r="O33">
+        <v>2.941382252017391E-05</v>
+      </c>
+      <c r="P33">
+        <v>2.943252297302894E-05</v>
+      </c>
+      <c r="Q33">
+        <v>0.06542944184800001</v>
+      </c>
+      <c r="R33">
+        <v>0.588864976632</v>
+      </c>
+      <c r="S33">
+        <v>2.434836938643584E-06</v>
+      </c>
+      <c r="T33">
+        <v>3.208689299644899E-06</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>4.822572</v>
+      </c>
+      <c r="H34">
+        <v>14.467716</v>
+      </c>
+      <c r="I34">
+        <v>0.08277866424785882</v>
+      </c>
+      <c r="J34">
+        <v>0.1090184929978733</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>160.3781766666667</v>
+      </c>
+      <c r="N34">
+        <v>481.13453</v>
+      </c>
+      <c r="O34">
+        <v>0.3476980412202665</v>
+      </c>
+      <c r="P34">
+        <v>0.34791909752205</v>
+      </c>
+      <c r="Q34">
+        <v>773.4353042037201</v>
+      </c>
+      <c r="R34">
+        <v>6960.917737833481</v>
+      </c>
+      <c r="S34">
+        <v>0.02878197941381062</v>
+      </c>
+      <c r="T34">
+        <v>0.037929615697034</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>4.822572</v>
+      </c>
+      <c r="H35">
+        <v>14.467716</v>
+      </c>
+      <c r="I35">
+        <v>0.08277866424785882</v>
+      </c>
+      <c r="J35">
+        <v>0.1090184929978733</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.5</v>
+      </c>
+      <c r="M35">
+        <v>0.6111180000000001</v>
+      </c>
+      <c r="N35">
+        <v>1.222236</v>
+      </c>
+      <c r="O35">
+        <v>0.001324896790640531</v>
+      </c>
+      <c r="P35">
+        <v>0.000883826080990197</v>
+      </c>
+      <c r="Q35">
+        <v>2.947160555496</v>
+      </c>
+      <c r="R35">
+        <v>17.682963332976</v>
+      </c>
+      <c r="S35">
+        <v>0.0001096731865954983</v>
+      </c>
+      <c r="T35">
+        <v>9.635338742176756E-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>4.822572</v>
+      </c>
+      <c r="H36">
+        <v>14.467716</v>
+      </c>
+      <c r="I36">
+        <v>0.08277866424785882</v>
+      </c>
+      <c r="J36">
+        <v>0.1090184929978733</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>190.6043296666667</v>
+      </c>
+      <c r="N36">
+        <v>571.812989</v>
+      </c>
+      <c r="O36">
+        <v>0.4132279930513526</v>
+      </c>
+      <c r="P36">
+        <v>0.4134907113905666</v>
+      </c>
+      <c r="Q36">
+        <v>919.203103329236</v>
+      </c>
+      <c r="R36">
+        <v>8272.827929963123</v>
+      </c>
+      <c r="S36">
+        <v>0.03420646129461445</v>
+      </c>
+      <c r="T36">
+        <v>0.04507813422441812</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>4.822572</v>
+      </c>
+      <c r="H37">
+        <v>14.467716</v>
+      </c>
+      <c r="I37">
+        <v>0.08277866424785882</v>
+      </c>
+      <c r="J37">
+        <v>0.1090184929978733</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>109.381785</v>
+      </c>
+      <c r="N37">
+        <v>328.145355</v>
+      </c>
+      <c r="O37">
+        <v>0.2371384510046057</v>
+      </c>
+      <c r="P37">
+        <v>0.2372892167345643</v>
+      </c>
+      <c r="Q37">
+        <v>527.5015336510199</v>
+      </c>
+      <c r="R37">
+        <v>4747.51380285918</v>
+      </c>
+      <c r="S37">
+        <v>0.01963000421596757</v>
+      </c>
+      <c r="T37">
+        <v>0.02586891281304793</v>
       </c>
     </row>
   </sheetData>
